--- a/results/mp/logistic/toy-spam/confidence/42/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/42/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="174">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,294 +40,309 @@
     <t>name</t>
   </si>
   <si>
+    <t>poorly</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>return</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>disappointing</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>sound</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>half</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>piece</t>
+    <t>smaller</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>balls</t>
+  </si>
+  <si>
     <t>worked</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>instructions</t>
+    <t>otherwise</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>lasted</t>
   </si>
   <si>
     <t>short</t>
   </si>
   <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>glue</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>looked</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>interest</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>looked</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
     <t>within</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>air</t>
+    <t>week</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>week</t>
+    <t>way</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>doll</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>ball</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
-    <t>working</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>bigger</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>better</t>
   </si>
   <si>
     <t>ordered</t>
   </si>
   <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
+    <t>could</t>
+  </si>
+  <si>
     <t>expected</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>big</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>big</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>son</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>size</t>
+    <t>put</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>together</t>
   </si>
   <si>
-    <t>quality</t>
+    <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
@@ -337,163 +352,187 @@
     <t>one</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>challenge</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>expansion</t>
   </si>
   <si>
+    <t>helicopter</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>excellent</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>grandchildren</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>helicopter</t>
-  </si>
-  <si>
-    <t>elf</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>thank</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>challenge</t>
+    <t>story</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>perfect</t>
   </si>
   <si>
     <t>strategy</t>
   </si>
   <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>blast</t>
+    <t>glad</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>educational</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>challenging</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>ages</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>lego</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>challenging</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thomas</t>
+  </si>
+  <si>
+    <t>everyone</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
     <t>books</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>lots</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>educational</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoys</t>
   </si>
   <si>
     <t>book</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
     <t>play</t>
   </si>
   <si>
-    <t>playing</t>
-  </si>
-  <si>
     <t>games</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>time</t>
+    <t>children</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>positive</t>
@@ -854,7 +893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -862,10 +901,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -923,13 +962,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9932432432432432</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -944,16 +983,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K3">
-        <v>0.8936170212765957</v>
+        <v>0.9</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -965,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -973,13 +1012,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.971830985915493</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="C4">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="D4">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -991,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K4">
-        <v>0.8679245283018868</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1015,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1023,13 +1062,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9578947368421052</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1041,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K5">
-        <v>0.8571428571428571</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1065,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1073,13 +1112,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.956989247311828</v>
+        <v>0.9563106796116505</v>
       </c>
       <c r="C6">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="D6">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1091,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K6">
-        <v>0.828125</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L6">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1115,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1123,13 +1162,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9563106796116505</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C7">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1141,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K7">
-        <v>0.8214285714285714</v>
+        <v>0.84375</v>
       </c>
       <c r="L7">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M7">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1173,13 +1212,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.921875</v>
+        <v>0.9408602150537635</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="D8">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1191,31 +1230,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8">
+        <v>0.84375</v>
+      </c>
+      <c r="L8">
+        <v>27</v>
+      </c>
+      <c r="M8">
+        <v>27</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>5</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8">
-        <v>0.8153846153846154</v>
-      </c>
-      <c r="L8">
-        <v>53</v>
-      </c>
-      <c r="M8">
-        <v>53</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1223,13 +1262,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9193548387096774</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="C9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1241,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K9">
-        <v>0.8029045643153527</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>387</v>
+        <v>63</v>
       </c>
       <c r="M9">
-        <v>387</v>
+        <v>63</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1265,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>95</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1273,13 +1312,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9130434782608695</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1294,28 +1333,28 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K10">
-        <v>0.8</v>
+        <v>0.8125</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="N10">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1323,13 +1362,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.890625</v>
+        <v>0.8828125</v>
       </c>
       <c r="C11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1341,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="K11">
-        <v>0.796875</v>
+        <v>0.8029045643153527</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>387</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>387</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1365,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1373,13 +1412,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8727272727272727</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="C12">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1394,16 +1433,16 @@
         <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K12">
-        <v>0.7956989247311828</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L12">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1415,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1423,13 +1462,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8524590163934426</v>
+        <v>0.8688524590163934</v>
       </c>
       <c r="C13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1441,19 +1480,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1465,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1473,13 +1512,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8253968253968254</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C14">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1491,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="K14">
-        <v>0.7546628407460545</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L14">
-        <v>526</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>526</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1515,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>171</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1523,13 +1562,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8192771084337349</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C15">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1541,19 +1580,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="K15">
-        <v>0.7155963302752294</v>
+        <v>0.7661406025824964</v>
       </c>
       <c r="L15">
-        <v>234</v>
+        <v>534</v>
       </c>
       <c r="M15">
-        <v>234</v>
+        <v>534</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1565,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>93</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1573,13 +1612,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8181818181818182</v>
+        <v>0.859375</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1591,19 +1630,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="K16">
-        <v>0.6666666666666666</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1615,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1623,13 +1662,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7777777777777778</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1641,19 +1680,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="K17">
-        <v>0.6585365853658537</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1665,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1673,13 +1712,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7567567567567568</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="C18">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1691,19 +1730,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="K18">
-        <v>0.6545454545454545</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1715,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1723,13 +1762,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7535545023696683</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="C19">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1741,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="K19">
-        <v>0.6521739130434783</v>
+        <v>0.6850152905198776</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1765,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1773,13 +1812,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.746031746031746</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="C20">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1791,19 +1830,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="K20">
-        <v>0.6363636363636364</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1815,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1823,13 +1862,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7368421052631579</v>
+        <v>0.7535545023696683</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1841,19 +1880,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="K21">
-        <v>0.6265060240963856</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L21">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1865,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1873,13 +1912,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7319587628865979</v>
+        <v>0.75</v>
       </c>
       <c r="C22">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D22">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1891,19 +1930,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.6265060240963856</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1915,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1923,13 +1962,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7037037037037037</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="C23">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1941,31 +1980,31 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>11</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23">
+        <v>0.6097560975609756</v>
+      </c>
+      <c r="L23">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>25</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>16</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K23">
-        <v>0.6155988857938719</v>
-      </c>
-      <c r="L23">
-        <v>221</v>
-      </c>
-      <c r="M23">
-        <v>221</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1973,13 +2012,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6842105263157895</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1991,19 +2030,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K24">
-        <v>0.6068376068376068</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2015,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2023,13 +2062,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6707317073170732</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C25">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D25">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2041,19 +2080,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="K25">
-        <v>0.5853858784893268</v>
+        <v>0.5921787709497207</v>
       </c>
       <c r="L25">
-        <v>713</v>
+        <v>212</v>
       </c>
       <c r="M25">
-        <v>715</v>
+        <v>213</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2065,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>505</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2073,13 +2112,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6521739130434783</v>
+        <v>0.7216494845360825</v>
       </c>
       <c r="C26">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="D26">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2091,19 +2130,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K26">
-        <v>0.5571428571428572</v>
+        <v>0.5885245901639344</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>718</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>718</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2115,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>31</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2123,13 +2162,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6388888888888888</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="C27">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D27">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2141,19 +2180,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="K27">
-        <v>0.5483870967741935</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2165,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2173,13 +2212,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6379310344827587</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C28">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2194,16 +2233,16 @@
         <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="K28">
-        <v>0.54</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2215,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2223,13 +2262,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6376811594202898</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C29">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D29">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2241,19 +2280,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="K29">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2265,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2273,13 +2312,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6336633663366337</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C30">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2291,19 +2330,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="K30">
-        <v>0.4867724867724867</v>
+        <v>0.48</v>
       </c>
       <c r="L30">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2315,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>97</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2323,13 +2362,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6285714285714286</v>
+        <v>0.6732673267326733</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2341,19 +2380,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="K31">
-        <v>0.4523809523809524</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2373,13 +2412,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6263736263736264</v>
+        <v>0.6707317073170732</v>
       </c>
       <c r="C32">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D32">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2391,19 +2430,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="K32">
-        <v>0.426995457495133</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L32">
-        <v>658</v>
+        <v>54</v>
       </c>
       <c r="M32">
-        <v>658</v>
+        <v>54</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2415,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>883</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2423,13 +2462,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5952380952380952</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2441,19 +2480,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="K33">
-        <v>0.4202898550724637</v>
+        <v>0.45</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2465,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2473,13 +2512,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5892857142857143</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D34">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2491,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="K34">
-        <v>0.4130434782608696</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2515,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2523,13 +2562,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5664556962025317</v>
+        <v>0.6386554621848739</v>
       </c>
       <c r="C35">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="D35">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2541,19 +2580,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="K35">
-        <v>0.4083333333333333</v>
+        <v>0.4239130434782609</v>
       </c>
       <c r="L35">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M35">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2565,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2573,13 +2612,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5555555555555556</v>
+        <v>0.6347826086956522</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2591,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="K36">
-        <v>0.3688524590163935</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="L36">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="M36">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2615,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>77</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2623,13 +2662,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5546218487394958</v>
+        <v>0.625</v>
       </c>
       <c r="C37">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2641,19 +2680,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K37">
-        <v>0.3663453111305872</v>
+        <v>0.406371911573472</v>
       </c>
       <c r="L37">
-        <v>418</v>
+        <v>625</v>
       </c>
       <c r="M37">
-        <v>418</v>
+        <v>628</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2662,10 +2701,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>723</v>
+        <v>913</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2673,13 +2712,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5526315789473685</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D38">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2691,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="K38">
-        <v>0.3207547169811321</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2715,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2723,13 +2762,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5510204081632653</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D39">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2744,16 +2783,16 @@
         <v>22</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K39">
-        <v>0.2337662337662338</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L39">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2765,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>118</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2773,13 +2812,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5178571428571429</v>
+        <v>0.6</v>
       </c>
       <c r="C40">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D40">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2791,19 +2830,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="K40">
-        <v>0.2027972027972028</v>
+        <v>0.3360655737704918</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M40">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2815,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>114</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2823,13 +2862,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5172413793103449</v>
+        <v>0.6</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2844,16 +2883,16 @@
         <v>14</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K41">
-        <v>0.1965811965811966</v>
+        <v>0.3307017543859649</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>377</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>378</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2862,10 +2901,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>94</v>
+        <v>763</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2873,13 +2912,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4857142857142857</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D42">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2891,31 +2930,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="K42">
-        <v>0.192</v>
+        <v>0.296</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2923,13 +2962,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4791666666666667</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D43">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2941,31 +2980,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="K43">
-        <v>0.17</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M43">
         <v>18</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>83</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2973,13 +3012,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.475</v>
+        <v>0.5625</v>
       </c>
       <c r="C44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2991,19 +3030,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K44">
-        <v>0.1484375</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="M44">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3015,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3023,13 +3062,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C45">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D45">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3041,19 +3080,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="K45">
-        <v>0.1423611111111111</v>
+        <v>0.25</v>
       </c>
       <c r="L45">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M45">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3065,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>247</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3073,13 +3112,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4642857142857143</v>
+        <v>0.5474683544303798</v>
       </c>
       <c r="C46">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="D46">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3091,19 +3130,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="K46">
-        <v>0.136</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3115,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3123,13 +3162,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4523809523809524</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="C47">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3141,31 +3180,31 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="K47">
-        <v>0.1330645161290323</v>
+        <v>0.1742160278745645</v>
       </c>
       <c r="L47">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="M47">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="N47">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O47">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3173,13 +3212,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4324324324324325</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="C48">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D48">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3191,19 +3230,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="K48">
-        <v>0.1236559139784946</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="L48">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M48">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3215,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>163</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3223,13 +3262,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.421875</v>
+        <v>0.5</v>
       </c>
       <c r="C49">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D49">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3241,31 +3280,31 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="K49">
-        <v>0.1133333333333333</v>
+        <v>0.157258064516129</v>
       </c>
       <c r="L49">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="M49">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="N49">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O49">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>665</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3273,13 +3312,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4117647058823529</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="C50">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D50">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3291,31 +3330,31 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="K50">
-        <v>0.09597523219814241</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="L50">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M50">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N50">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O50">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>292</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3323,13 +3362,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4107142857142857</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C51">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D51">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3341,31 +3380,31 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="K51">
-        <v>0.09375</v>
+        <v>0.1417112299465241</v>
       </c>
       <c r="L51">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="M51">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="N51">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>145</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3373,13 +3412,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.4082278481012658</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="C52">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="D52">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3391,31 +3430,31 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K52">
-        <v>0.09115281501340483</v>
+        <v>0.1327160493827161</v>
       </c>
       <c r="L52">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M52">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>339</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3423,13 +3462,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.4057971014492754</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C53">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="D53">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3441,31 +3480,31 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="K53">
-        <v>0.07828282828282829</v>
+        <v>0.1188251001335113</v>
       </c>
       <c r="L53">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="M53">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>365</v>
+        <v>660</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3473,13 +3512,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.4</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="C54">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D54">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3491,31 +3530,31 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="K54">
-        <v>0.0410958904109589</v>
+        <v>0.1118012422360248</v>
       </c>
       <c r="L54">
         <v>18</v>
       </c>
       <c r="M54">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N54">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>420</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3523,25 +3562,49 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3825136612021858</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C55">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D55">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>113</v>
+        <v>36</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K55">
+        <v>0.08838383838383838</v>
+      </c>
+      <c r="L55">
+        <v>35</v>
+      </c>
+      <c r="M55">
+        <v>35</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3549,13 +3612,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.3707865168539326</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="C56">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D56">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3567,7 +3630,31 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>56</v>
+        <v>24</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K56">
+        <v>0.07920792079207921</v>
+      </c>
+      <c r="L56">
+        <v>16</v>
+      </c>
+      <c r="M56">
+        <v>19</v>
+      </c>
+      <c r="N56">
+        <v>0.84</v>
+      </c>
+      <c r="O56">
+        <v>0.16</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3575,13 +3662,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.34375</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C57">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D57">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3593,7 +3680,31 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>84</v>
+        <v>33</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K57">
+        <v>0.06551724137931035</v>
+      </c>
+      <c r="L57">
+        <v>19</v>
+      </c>
+      <c r="M57">
+        <v>19</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3601,13 +3712,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.3378378378378378</v>
+        <v>0.41</v>
       </c>
       <c r="C58">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D58">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3619,7 +3730,31 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>49</v>
+        <v>118</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K58">
+        <v>0.06299212598425197</v>
+      </c>
+      <c r="L58">
+        <v>16</v>
+      </c>
+      <c r="M58">
+        <v>19</v>
+      </c>
+      <c r="N58">
+        <v>0.84</v>
+      </c>
+      <c r="O58">
+        <v>0.16</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3627,13 +3762,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3645,7 +3780,31 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K59">
+        <v>0.02846975088967971</v>
+      </c>
+      <c r="L59">
+        <v>16</v>
+      </c>
+      <c r="M59">
+        <v>19</v>
+      </c>
+      <c r="N59">
+        <v>0.84</v>
+      </c>
+      <c r="O59">
+        <v>0.16</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>546</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3653,13 +3812,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.3307086614173229</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C60">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D60">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3671,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3679,13 +3838,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.3255813953488372</v>
+        <v>0.3840579710144927</v>
       </c>
       <c r="C61">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="D61">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3697,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3705,25 +3864,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.3247863247863248</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="C62">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D62">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3731,13 +3890,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.305</v>
+        <v>0.3670886075949367</v>
       </c>
       <c r="C63">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="D63">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3749,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -3757,13 +3916,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2835820895522388</v>
+        <v>0.35</v>
       </c>
       <c r="C64">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D64">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3775,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3783,13 +3942,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.282051282051282</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="C65">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D65">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3801,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>56</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3809,25 +3968,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2631578947368421</v>
+        <v>0.3411764705882353</v>
       </c>
       <c r="C66">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D66">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3835,13 +3994,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2622950819672131</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C67">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D67">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3853,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3861,25 +4020,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2563338301043219</v>
+        <v>0.313953488372093</v>
       </c>
       <c r="C68">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D68">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="E68">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>499</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3887,13 +4046,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.253968253968254</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C69">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D69">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3905,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3913,25 +4072,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.252212389380531</v>
+        <v>0.2598425196850394</v>
       </c>
       <c r="C70">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="D70">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="E70">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>338</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3939,25 +4098,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2393162393162393</v>
+        <v>0.2485119047619048</v>
       </c>
       <c r="C71">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="D71">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>89</v>
+        <v>505</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3965,25 +4124,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.2357142857142857</v>
+        <v>0.2341040462427746</v>
       </c>
       <c r="C72">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="D72">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>107</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3991,13 +4150,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2114285714285714</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C73">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D73">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4009,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>138</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4017,25 +4176,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1993670886075949</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="C74">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D74">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E74">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>253</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4043,13 +4202,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1926605504587156</v>
+        <v>0.2228571428571429</v>
       </c>
       <c r="C75">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D75">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4061,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>88</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4069,25 +4228,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1896024464831804</v>
+        <v>0.2214285714285714</v>
       </c>
       <c r="C76">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="D76">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="E76">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>530</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4095,25 +4254,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1815561959654179</v>
+        <v>0.2208201892744479</v>
       </c>
       <c r="C77">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D77">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E77">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>284</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4121,13 +4280,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1785714285714286</v>
+        <v>0.2180616740088106</v>
       </c>
       <c r="C78">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="D78">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4139,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>161</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4147,13 +4306,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1486486486486487</v>
+        <v>0.2102803738317757</v>
       </c>
       <c r="C79">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D79">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -4165,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>126</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4173,25 +4332,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1436170212765958</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="C80">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D80">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E80">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>161</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4199,13 +4358,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.140625</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="C81">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4217,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>165</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4225,25 +4384,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1346153846153846</v>
+        <v>0.1813471502590674</v>
       </c>
       <c r="C82">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D82">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E82">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="F82">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>135</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4251,25 +4410,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1314553990610329</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="C83">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D83">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E83">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>185</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4277,25 +4436,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1297297297297297</v>
+        <v>0.166412213740458</v>
       </c>
       <c r="C84">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="D84">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="E84">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>161</v>
+        <v>546</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4303,25 +4462,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1254480286738351</v>
+        <v>0.1657754010695187</v>
       </c>
       <c r="C85">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D85">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E85">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="F85">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>244</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4329,25 +4488,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1236263736263736</v>
+        <v>0.1656050955414013</v>
       </c>
       <c r="C86">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D86">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E86">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>319</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4355,25 +4514,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.12</v>
+        <v>0.162303664921466</v>
       </c>
       <c r="C87">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D87">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>132</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4381,25 +4540,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1134259259259259</v>
+        <v>0.1476510067114094</v>
       </c>
       <c r="C88">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D88">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E88">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F88">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>383</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4407,13 +4566,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09947643979057591</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="C89">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D89">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4425,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>172</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4433,25 +4592,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09744779582366589</v>
+        <v>0.1263736263736264</v>
       </c>
       <c r="C90">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D90">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E90">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F90">
-        <v>0.9299999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>389</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4459,25 +4618,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.0918918918918919</v>
+        <v>0.124223602484472</v>
       </c>
       <c r="C91">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D91">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E91">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>168</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4485,25 +4644,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.09142857142857143</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="C92">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D92">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4511,25 +4670,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08806818181818182</v>
+        <v>0.1123188405797101</v>
       </c>
       <c r="C93">
         <v>31</v>
       </c>
       <c r="D93">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E93">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F93">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>321</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4537,13 +4696,13 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.08333333333333333</v>
+        <v>0.1121495327102804</v>
       </c>
       <c r="C94">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D94">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E94">
         <v>0.11</v>
@@ -4555,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>176</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4563,25 +4722,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08021390374331551</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="C95">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D95">
         <v>20</v>
       </c>
       <c r="E95">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4589,25 +4748,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.06976744186046512</v>
+        <v>0.1054131054131054</v>
       </c>
       <c r="C96">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D96">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>280</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4615,25 +4774,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.06910569105691057</v>
+        <v>0.1021505376344086</v>
       </c>
       <c r="C97">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D97">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E97">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="F97">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>229</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4641,25 +4800,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.06015037593984962</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="C98">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D98">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E98">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="F98">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>250</v>
+        <v>385</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4667,25 +4826,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.05188679245283019</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="C99">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D99">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E99">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>402</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4693,25 +4852,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.033003300330033</v>
+        <v>0.09634551495016612</v>
       </c>
       <c r="C100">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D100">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E100">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>586</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4719,25 +4878,233 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.02668360864040661</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="C101">
+        <v>18</v>
+      </c>
+      <c r="D101">
+        <v>22</v>
+      </c>
+      <c r="E101">
+        <v>0.18</v>
+      </c>
+      <c r="F101">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="C102">
+        <v>19</v>
+      </c>
+      <c r="D102">
+        <v>20</v>
+      </c>
+      <c r="E102">
+        <v>0.05</v>
+      </c>
+      <c r="F102">
+        <v>0.95</v>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>0.06504065040650407</v>
+      </c>
+      <c r="C103">
+        <v>16</v>
+      </c>
+      <c r="D103">
+        <v>18</v>
+      </c>
+      <c r="E103">
+        <v>0.11</v>
+      </c>
+      <c r="F103">
+        <v>0.89</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>0.05225653206650831</v>
+      </c>
+      <c r="C104">
+        <v>22</v>
+      </c>
+      <c r="D104">
+        <v>30</v>
+      </c>
+      <c r="E104">
+        <v>0.27</v>
+      </c>
+      <c r="F104">
+        <v>0.73</v>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>0.05016722408026756</v>
+      </c>
+      <c r="C105">
+        <v>30</v>
+      </c>
+      <c r="D105">
+        <v>40</v>
+      </c>
+      <c r="E105">
+        <v>0.25</v>
+      </c>
+      <c r="F105">
+        <v>0.75</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>0.04949238578680203</v>
+      </c>
+      <c r="C106">
+        <v>39</v>
+      </c>
+      <c r="D106">
+        <v>45</v>
+      </c>
+      <c r="E106">
+        <v>0.13</v>
+      </c>
+      <c r="F106">
+        <v>0.87</v>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
+        <v>0.04225352112676056</v>
+      </c>
+      <c r="C107">
         <v>21</v>
       </c>
-      <c r="D101">
+      <c r="D107">
         <v>28</v>
       </c>
-      <c r="E101">
+      <c r="E107">
         <v>0.25</v>
       </c>
-      <c r="F101">
+      <c r="F107">
         <v>0.75</v>
       </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101">
-        <v>766</v>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108">
+        <v>0.03663793103448276</v>
+      </c>
+      <c r="C108">
+        <v>17</v>
+      </c>
+      <c r="D108">
+        <v>22</v>
+      </c>
+      <c r="E108">
+        <v>0.23</v>
+      </c>
+      <c r="F108">
+        <v>0.77</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109">
+        <v>0.02485380116959064</v>
+      </c>
+      <c r="C109">
+        <v>17</v>
+      </c>
+      <c r="D109">
+        <v>25</v>
+      </c>
+      <c r="E109">
+        <v>0.32</v>
+      </c>
+      <c r="F109">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>667</v>
       </c>
     </row>
   </sheetData>
